--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="482">
   <si>
     <t>Path</t>
   </si>
@@ -999,7 +999,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity
+    <t xml:space="preserve">integer
 </t>
   </si>
   <si>
@@ -1031,135 +1031,7 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x].value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>Observation.value[x].comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>Observation.value[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.value[x].system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.value[x].code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
+    <t>valueInteger</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1816,7 +1688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1849,7 +1721,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -6470,7 +6342,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6482,16 +6354,20 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6515,13 +6391,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6539,7 +6415,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>71</v>
+        <v>321</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6548,10 +6424,10 @@
         <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6560,10 +6436,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>72</v>
+        <v>329</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6574,18 +6450,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6597,18 +6473,20 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6632,31 +6510,31 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6668,30 +6546,30 @@
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>72</v>
+        <v>340</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6711,22 +6589,22 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6775,13 +6653,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6796,10 +6674,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6810,7 +6688,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6821,36 +6699,34 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P43" t="s" s="2">
-        <v>336</v>
-      </c>
+      <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6870,13 +6746,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6894,7 +6770,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6912,24 +6788,24 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>45</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6949,20 +6825,22 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6987,13 +6865,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -7011,7 +6889,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7032,10 +6910,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -7046,7 +6924,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7057,7 +6935,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -7066,21 +6944,21 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>97</v>
+        <v>370</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -7128,7 +7006,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7137,7 +7015,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -7146,24 +7024,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>45</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7174,7 +7052,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -7183,23 +7061,21 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>379</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7247,7 +7123,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7265,24 +7141,24 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7305,19 +7181,19 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>204</v>
+        <v>388</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7342,13 +7218,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7366,19 +7242,19 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>393</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7387,10 +7263,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>155</v>
+        <v>394</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7401,18 +7277,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7424,20 +7300,16 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>69</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7461,13 +7333,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7485,53 +7357,53 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>372</v>
+        <v>71</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>381</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>382</v>
+        <v>72</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7543,20 +7415,18 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7604,7 +7474,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7616,7 +7486,7 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7625,10 +7495,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7639,41 +7509,43 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7697,13 +7569,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7721,42 +7593,42 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>401</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7767,7 +7639,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7779,20 +7651,16 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>204</v>
+        <v>405</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7816,13 +7684,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7840,7 +7708,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7849,7 +7717,7 @@
         <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
@@ -7886,7 +7754,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7898,17 +7766,15 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7966,7 +7832,7 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>67</v>
@@ -7975,24 +7841,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8003,7 +7869,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -8015,18 +7881,20 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>421</v>
+        <v>204</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -8050,13 +7918,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>45</v>
+        <v>420</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -8074,7 +7942,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8092,24 +7960,24 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>427</v>
+        <v>340</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>428</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8120,7 +7988,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -8132,19 +8000,19 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>430</v>
+        <v>204</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8169,13 +8037,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>430</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8193,7 +8061,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8205,19 +8073,19 @@
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>435</v>
+        <v>67</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>45</v>
+        <v>422</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>437</v>
+        <v>340</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8228,7 +8096,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8251,16 +8119,18 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>57</v>
+        <v>432</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>69</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>70</v>
+        <v>434</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8308,7 +8178,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>71</v>
+        <v>431</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8320,7 +8190,7 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8332,7 +8202,7 @@
         <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>72</v>
+        <v>436</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8343,18 +8213,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8366,17 +8236,15 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8425,19 +8293,19 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8446,10 +8314,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>72</v>
+        <v>440</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8460,43 +8328,41 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>75</v>
+        <v>442</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8544,7 +8410,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8556,7 +8422,7 @@
         <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
@@ -8565,10 +8431,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>155</v>
+        <v>447</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8579,7 +8445,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8590,7 +8456,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8599,18 +8465,20 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8659,16 +8527,16 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8680,10 +8548,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8694,7 +8562,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8705,7 +8573,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8714,19 +8582,23 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8774,16 +8646,16 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>67</v>
@@ -8795,10 +8667,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8809,7 +8681,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8832,20 +8704,16 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>458</v>
+        <v>69</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8869,13 +8737,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>462</v>
+        <v>45</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>463</v>
+        <v>45</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -8893,7 +8761,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>457</v>
+        <v>71</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8905,19 +8773,19 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>464</v>
+        <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>465</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>382</v>
+        <v>72</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8928,11 +8796,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8951,20 +8819,18 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>467</v>
+        <v>76</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>468</v>
+        <v>77</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8988,13 +8854,13 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>471</v>
+        <v>45</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>472</v>
+        <v>45</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -9012,7 +8878,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9024,19 +8890,19 @@
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>464</v>
+        <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>465</v>
+        <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>382</v>
+        <v>72</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9047,40 +8913,42 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>474</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>477</v>
+        <v>402</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9129,19 +8997,19 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>473</v>
+        <v>403</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
@@ -9153,7 +9021,7 @@
         <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>478</v>
+        <v>155</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9164,7 +9032,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9172,7 +9040,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>55</v>
@@ -9184,19 +9052,23 @@
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9220,13 +9092,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9244,10 +9116,10 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>55</v>
@@ -9262,16 +9134,16 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>451</v>
+        <v>224</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>482</v>
+        <v>225</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>45</v>
@@ -9279,7 +9151,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9290,7 +9162,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -9302,18 +9174,20 @@
         <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>486</v>
+        <v>312</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9361,13 +9235,13 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
@@ -9379,24 +9253,24 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>45</v>
+        <v>473</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>488</v>
+        <v>317</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>489</v>
+        <v>318</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9407,7 +9281,7 @@
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
@@ -9416,21 +9290,23 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>491</v>
+        <v>204</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9454,13 +9330,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9478,16 +9354,16 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>67</v>
@@ -9499,10 +9375,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>488</v>
+        <v>155</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>495</v>
+        <v>329</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9513,18 +9389,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9533,22 +9409,22 @@
         <v>45</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>430</v>
+        <v>204</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>497</v>
+        <v>332</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>498</v>
+        <v>333</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>499</v>
+        <v>334</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>500</v>
+        <v>335</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9573,13 +9449,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9597,7 +9473,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9615,24 +9491,24 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>501</v>
+        <v>339</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>502</v>
+        <v>340</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9643,7 +9519,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9655,16 +9531,20 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>69</v>
+        <v>480</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9712,19 +9592,19 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>71</v>
+        <v>479</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
@@ -9733,851 +9613,20 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>45</v>
+        <v>394</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO74" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO74">
+  <autoFilter ref="A1:AO67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10587,7 +9636,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -675,7 +675,6 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
     &lt;code value="vital-signs"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -675,6 +675,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
     &lt;code value="vital-signs"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="561">
   <si>
     <t>Property</t>
   </si>
@@ -87,6 +87,7 @@
 - must have vital-signs category
 - must have both LOINC#72514-3 and SCT#225908003 code
 - must have effectiveDateTime
+- must have valueQuantity with no units
   - must have integer between 0-10
 - must have status at final
 - must point at the patient
@@ -1112,7 +1113,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">integer
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
@@ -1144,10 +1145,148 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
-    <t>valueInteger</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://unitsofmeasure.org"/&gt;
+  &lt;code value="{score}"/&gt;
+&lt;/valueQuantity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
+  &lt;value value="10"/&gt;
+  &lt;system value="http://unitsofmeasure.org"/&gt;
+  &lt;code value="{score}"/&gt;
+&lt;/valueQuantity&gt;</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1960,7 +2099,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1988,12 +2127,12 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="43.15625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="43.15625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -6535,10 +6674,10 @@
         <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s" s="2">
         <v>80</v>
@@ -6603,7 +6742,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6614,7 +6753,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6626,20 +6765,16 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>358</v>
+        <v>104</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6663,13 +6798,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6687,7 +6822,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>357</v>
+        <v>106</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6696,10 +6831,10 @@
         <v>90</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>80</v>
@@ -6708,10 +6843,10 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>107</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6722,18 +6857,18 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>367</v>
+        <v>109</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>80</v>
@@ -6745,20 +6880,18 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>368</v>
+        <v>111</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>112</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6782,31 +6915,31 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>117</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6818,30 +6951,30 @@
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6861,22 +6994,22 @@
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -6892,10 +7025,10 @@
         <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="V42" t="s" s="2">
         <v>80</v>
@@ -6925,13 +7058,13 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -6946,10 +7079,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6960,7 +7093,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6971,34 +7104,36 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="Q43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7018,13 +7153,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -7042,7 +7177,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7060,24 +7195,24 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7088,7 +7223,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -7097,22 +7232,20 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -7137,13 +7270,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7161,7 +7294,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7182,10 +7315,10 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7196,7 +7329,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7207,7 +7340,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -7216,21 +7349,21 @@
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>406</v>
+        <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7278,7 +7411,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7287,7 +7420,7 @@
         <v>90</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>102</v>
@@ -7296,24 +7429,24 @@
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7324,7 +7457,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>80</v>
@@ -7333,21 +7466,23 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>415</v>
+        <v>167</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7395,7 +7530,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7413,24 +7548,24 @@
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7453,19 +7588,19 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>424</v>
+        <v>239</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7490,13 +7625,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7514,19 +7649,19 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>429</v>
+        <v>102</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>80</v>
@@ -7535,10 +7670,10 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>430</v>
+        <v>190</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7549,18 +7684,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7572,16 +7707,20 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7605,13 +7744,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7629,53 +7768,53 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>106</v>
+        <v>409</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>107</v>
+        <v>419</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
@@ -7687,18 +7826,20 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>110</v>
+        <v>422</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>111</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>112</v>
+        <v>424</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7746,7 +7887,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>117</v>
+        <v>421</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7758,7 +7899,7 @@
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>80</v>
@@ -7767,10 +7908,10 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>107</v>
+        <v>428</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7781,43 +7922,41 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7841,13 +7980,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7865,42 +8004,42 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>436</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>190</v>
+        <v>437</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7911,7 +8050,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -7923,16 +8062,20 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7956,13 +8099,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>444</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7980,7 +8123,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7989,7 +8132,7 @@
         <v>90</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>102</v>
@@ -8001,10 +8144,10 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8015,7 +8158,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8026,7 +8169,7 @@
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
@@ -8038,15 +8181,17 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8095,7 +8240,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8104,7 +8249,7 @@
         <v>90</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>102</v>
@@ -8113,24 +8258,24 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8141,7 +8286,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -8153,20 +8298,18 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>239</v>
+        <v>458</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8190,31 +8333,31 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8232,24 +8375,24 @@
         <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>376</v>
+        <v>464</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8260,7 +8403,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
@@ -8272,19 +8415,19 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>239</v>
+        <v>467</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8309,31 +8452,31 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8345,19 +8488,19 @@
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>102</v>
+        <v>472</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>376</v>
+        <v>474</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8368,7 +8511,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8391,18 +8534,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>468</v>
+        <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>469</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>470</v>
+        <v>105</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>471</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8450,7 +8591,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>467</v>
+        <v>106</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8462,7 +8603,7 @@
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>80</v>
@@ -8474,7 +8615,7 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>472</v>
+        <v>107</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8485,18 +8626,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8508,15 +8649,17 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>474</v>
+        <v>111</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8565,19 +8708,19 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>473</v>
+        <v>117</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>80</v>
@@ -8586,10 +8729,10 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>476</v>
+        <v>107</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8604,26 +8747,26 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>478</v>
+        <v>110</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>479</v>
@@ -8632,9 +8775,11 @@
         <v>480</v>
       </c>
       <c r="M57" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8682,7 +8827,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8694,7 +8839,7 @@
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>80</v>
@@ -8703,10 +8848,10 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8717,7 +8862,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8728,7 +8873,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -8737,20 +8882,18 @@
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>488</v>
-      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8799,16 +8942,16 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>102</v>
@@ -8820,7 +8963,7 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>489</v>
@@ -8845,7 +8988,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -8854,10 +8997,10 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>491</v>
@@ -8865,12 +9008,8 @@
       <c r="L59" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>494</v>
-      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8924,10 +9063,10 @@
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>102</v>
@@ -8939,10 +9078,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8953,7 +9092,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8976,16 +9115,20 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>495</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9009,13 +9152,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>499</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9033,7 +9176,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>106</v>
+        <v>494</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9045,19 +9188,19 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>107</v>
+        <v>419</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9068,11 +9211,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9091,18 +9234,20 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>111</v>
+        <v>504</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>112</v>
+        <v>505</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9126,13 +9271,13 @@
         <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>80</v>
@@ -9150,7 +9295,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>117</v>
+        <v>503</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9162,19 +9307,19 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>107</v>
+        <v>419</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9185,42 +9330,40 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>110</v>
+        <v>511</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>436</v>
+        <v>512</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>438</v>
+        <v>514</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9269,19 +9412,19 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>439</v>
+        <v>510</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
@@ -9293,7 +9436,7 @@
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>190</v>
+        <v>515</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9304,7 +9447,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9312,7 +9455,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>90</v>
@@ -9324,23 +9467,19 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9364,13 +9503,13 @@
         <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>80</v>
@@ -9388,10 +9527,10 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>90</v>
@@ -9406,16 +9545,16 @@
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>259</v>
+        <v>488</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>260</v>
+        <v>519</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9423,7 +9562,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9434,7 +9573,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9446,20 +9585,18 @@
         <v>91</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>347</v>
+        <v>523</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9507,13 +9644,13 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -9525,24 +9662,24 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>352</v>
+        <v>525</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>353</v>
+        <v>526</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9553,7 +9690,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9562,23 +9699,21 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>239</v>
+        <v>528</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9602,13 +9737,13 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>80</v>
@@ -9626,16 +9761,16 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>102</v>
@@ -9647,10 +9782,10 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>190</v>
+        <v>525</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>365</v>
+        <v>532</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9661,18 +9796,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9681,22 +9816,22 @@
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>239</v>
+        <v>467</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>368</v>
+        <v>534</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>369</v>
+        <v>535</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>370</v>
+        <v>536</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>371</v>
+        <v>537</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>80</v>
@@ -9721,13 +9856,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -9745,7 +9880,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9763,24 +9898,24 @@
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>375</v>
+        <v>538</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>376</v>
+        <v>539</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9791,7 +9926,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -9803,20 +9938,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>516</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9864,36 +9995,867 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>515</v>
+        <v>106</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI67" t="s" s="2">
+      <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI70" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO67" t="s" s="2">
+      <c r="AJ70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -1174,6 +1174,7 @@
   </si>
   <si>
     <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
+  &lt;value value="0"/&gt;
   &lt;system value="http://unitsofmeasure.org"/&gt;
   &lt;code value="{score}"/&gt;
 &lt;/valueQuantity&gt;</t>

--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -90,6 +90,7 @@
 - must have vital-signs category
 - must have both LOINC#72514-3 and SCT#225908003 code
 - must have effectiveDateTime
+  - others might use effectivePeriod
 - must have valueQuantity with no units
   - must have integer between 0-10
 - must have status at final

--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -275,6 +275,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Measurements and simple assertions</t>
@@ -2354,16 +2358,16 @@
         <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2428,16 +2432,16 @@
         <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2448,10 +2452,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2462,7 +2466,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2471,19 +2475,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2533,13 +2537,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2568,10 +2572,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2582,7 +2586,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2591,16 +2595,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2651,19 +2655,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2686,10 +2690,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2700,7 +2704,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2712,13 +2716,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2769,13 +2773,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -2793,7 +2797,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -2804,14 +2808,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2830,16 +2834,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2877,19 +2881,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -2901,7 +2905,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -2913,7 +2917,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -2924,10 +2928,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2938,7 +2942,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -2947,19 +2951,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3009,19 +3013,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3044,10 +3048,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3058,7 +3062,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3067,19 +3071,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3129,19 +3133,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3164,10 +3168,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3178,7 +3182,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3187,19 +3191,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3249,19 +3253,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3284,10 +3288,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3307,19 +3311,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3369,7 +3373,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3381,7 +3385,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3404,10 +3408,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3427,19 +3431,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3465,13 +3469,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3489,7 +3493,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3501,7 +3505,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3524,10 +3528,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3535,10 +3539,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3547,19 +3551,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3570,7 +3574,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3585,13 +3589,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3609,7 +3613,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3621,7 +3625,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3644,10 +3648,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3664,22 +3668,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3729,19 +3733,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3764,10 +3768,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3790,16 +3794,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3825,13 +3829,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3849,19 +3853,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -3884,21 +3888,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -3910,16 +3914,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3969,19 +3973,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -3993,7 +3997,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4004,14 +4008,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4030,16 +4034,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4089,7 +4093,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4113,7 +4117,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4124,10 +4128,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4150,13 +4154,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4207,7 +4211,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4219,7 +4223,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4242,10 +4246,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4262,19 +4266,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4325,7 +4329,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4337,7 +4341,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4360,10 +4364,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4383,20 +4387,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4445,7 +4449,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4457,22 +4461,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4480,14 +4484,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4503,20 +4507,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4565,7 +4569,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4577,19 +4581,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4600,14 +4604,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4623,19 +4627,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4685,7 +4689,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4697,19 +4701,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4720,10 +4724,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4731,34 +4735,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4768,7 +4772,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4783,13 +4787,13 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4807,34 +4811,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4842,10 +4846,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4853,10 +4857,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4868,19 +4872,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4890,7 +4894,7 @@
         <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>82</v>
@@ -4905,13 +4909,13 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
@@ -4929,7 +4933,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4941,7 +4945,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -4953,10 +4957,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4964,21 +4968,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -4987,22 +4991,22 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5027,13 +5031,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5051,45 +5055,45 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5100,7 +5104,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5112,13 +5116,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5169,13 +5173,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5193,7 +5197,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5204,14 +5208,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5230,16 +5234,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5277,19 +5281,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5301,7 +5305,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5313,7 +5317,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5324,10 +5328,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5335,10 +5339,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5347,22 +5351,22 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5399,17 +5403,17 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5421,7 +5425,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5430,10 +5434,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5444,23 +5448,23 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5469,22 +5473,22 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5494,7 +5498,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5533,7 +5537,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5545,7 +5549,7 @@
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5554,10 +5558,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5568,23 +5572,23 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5593,22 +5597,22 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5618,7 +5622,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5657,7 +5661,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5669,7 +5673,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5678,10 +5682,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5692,10 +5696,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5706,7 +5710,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5715,22 +5719,22 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5779,19 +5783,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -5800,10 +5804,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5814,10 +5818,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5825,10 +5829,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5837,22 +5841,22 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5901,34 +5905,34 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5936,10 +5940,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5959,19 +5963,19 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6021,7 +6025,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6033,7 +6037,7 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6042,13 +6046,13 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6056,14 +6060,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6079,22 +6083,22 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6143,34 +6147,34 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6178,21 +6182,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6201,22 +6205,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6253,44 +6257,44 @@
         <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6298,23 +6302,23 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6323,22 +6327,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6387,34 +6391,34 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6422,10 +6426,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6445,19 +6449,19 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6507,19 +6511,19 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6528,13 +6532,13 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6542,10 +6546,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6565,20 +6569,20 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6627,7 +6631,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6639,22 +6643,22 @@
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6662,10 +6666,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6676,7 +6680,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6685,22 +6689,22 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6737,58 +6741,58 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>82</v>
@@ -6798,7 +6802,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6807,22 +6811,22 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6871,45 +6875,45 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6920,7 +6924,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6932,13 +6936,13 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6989,13 +6993,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -7013,7 +7017,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7024,14 +7028,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7050,16 +7054,16 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7097,19 +7101,19 @@
         <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7121,7 +7125,7 @@
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7133,7 +7137,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7144,10 +7148,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7158,7 +7162,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -7167,22 +7171,22 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7198,10 +7202,10 @@
         <v>82</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W42" t="s" s="2">
         <v>82</v>
@@ -7231,19 +7235,19 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7252,10 +7256,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7266,10 +7270,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7280,35 +7284,35 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>82</v>
@@ -7329,13 +7333,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7353,19 +7357,19 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7374,10 +7378,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7388,10 +7392,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7402,7 +7406,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7411,20 +7415,20 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7473,19 +7477,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7494,10 +7498,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7508,10 +7512,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7522,7 +7526,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7531,20 +7535,20 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7593,19 +7597,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7614,10 +7618,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7628,10 +7632,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7642,7 +7646,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7651,22 +7655,22 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7715,19 +7719,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7736,10 +7740,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7750,10 +7754,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7776,19 +7780,19 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7813,13 +7817,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7837,19 +7841,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -7858,10 +7862,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7872,14 +7876,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7898,19 +7902,19 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7935,13 +7939,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7959,7 +7963,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7971,33 +7975,33 @@
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8008,7 +8012,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -8020,19 +8024,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8081,7 +8085,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8093,7 +8097,7 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8102,10 +8106,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8116,10 +8120,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8142,16 +8146,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8177,13 +8181,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8201,45 +8205,45 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8262,19 +8266,19 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8299,13 +8303,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8323,19 +8327,19 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8344,10 +8348,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8358,10 +8362,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8384,16 +8388,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8443,45 +8447,45 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8504,16 +8508,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8563,45 +8567,45 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8624,19 +8628,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8685,7 +8689,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8697,7 +8701,7 @@
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8706,10 +8710,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8720,10 +8724,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8734,7 +8738,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8746,13 +8750,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8803,13 +8807,13 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
@@ -8827,7 +8831,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8838,14 +8842,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8864,16 +8868,16 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8923,7 +8927,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8935,7 +8939,7 @@
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -8947,7 +8951,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8958,14 +8962,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8978,25 +8982,25 @@
         <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9045,7 +9049,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9057,7 +9061,7 @@
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9069,7 +9073,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9080,10 +9084,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9094,7 +9098,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9106,13 +9110,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9163,19 +9167,19 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9184,10 +9188,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9198,10 +9202,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9212,7 +9216,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9224,13 +9228,13 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9281,19 +9285,19 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -9302,10 +9306,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9316,10 +9320,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9330,7 +9334,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9342,19 +9346,19 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9379,13 +9383,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9403,31 +9407,31 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9438,10 +9442,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9464,19 +9468,19 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9501,13 +9505,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9525,7 +9529,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9537,19 +9541,19 @@
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9560,10 +9564,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9574,7 +9578,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9586,17 +9590,17 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9645,19 +9649,19 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9669,7 +9673,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9680,10 +9684,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9694,7 +9698,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9706,13 +9710,13 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9763,19 +9767,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -9784,10 +9788,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9798,10 +9802,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9821,19 +9825,19 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9883,7 +9887,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9895,7 +9899,7 @@
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -9904,10 +9908,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9918,10 +9922,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9941,19 +9945,19 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10003,7 +10007,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10015,7 +10019,7 @@
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10024,10 +10028,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10038,10 +10042,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10061,22 +10065,22 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10125,7 +10129,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10137,7 +10141,7 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10146,10 +10150,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10160,10 +10164,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10174,7 +10178,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10186,13 +10190,13 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10243,13 +10247,13 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
@@ -10267,7 +10271,7 @@
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10278,14 +10282,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10304,16 +10308,16 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10363,7 +10367,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10375,7 +10379,7 @@
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10387,7 +10391,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10398,14 +10402,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10418,25 +10422,25 @@
         <v>82</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10485,7 +10489,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10497,7 +10501,7 @@
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10509,7 +10513,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10520,10 +10524,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10531,10 +10535,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10543,22 +10547,22 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10583,13 +10587,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10607,34 +10611,34 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>82</v>
@@ -10642,10 +10646,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10656,7 +10660,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10665,22 +10669,22 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10729,45 +10733,45 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10778,7 +10782,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10790,19 +10794,19 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10827,13 +10831,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10851,19 +10855,19 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -10872,10 +10876,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10886,14 +10890,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10912,19 +10916,19 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10949,13 +10953,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -10973,7 +10977,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10985,33 +10989,33 @@
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11037,16 +11041,16 @@
         <v>82</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11095,7 +11099,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11107,7 +11111,7 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -11116,10 +11120,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Observation that declares how MHV will Create/Update in PGHD for pain measurements.
+    <t>A profile on the Observation that declares how MHV will Create in PGHD for pain measurements.
 Note that Pain is not part of FHIR core vital-signs.
 - must be marked with MHV app tag
 - must have vital-signs category

--- a/docs/StructureDefinition-VA.MHV.pain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.pain.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="566">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -290,6 +290,10 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -447,7 +451,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -467,7 +471,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1161,25 +1165,10 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.id</t>
-  </si>
-  <si>
     <t>Observation.value[x].id</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.extension</t>
-  </si>
-  <si>
     <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.value</t>
   </si>
   <si>
     <t>Observation.value[x].value</t>
@@ -1224,9 +1213,6 @@
     <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.comparator</t>
-  </si>
-  <si>
     <t>Observation.value[x].comparator</t>
   </si>
   <si>
@@ -1257,9 +1243,6 @@
     <t>IVL properties</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.unit</t>
-  </si>
-  <si>
     <t>Observation.value[x].unit</t>
   </si>
   <si>
@@ -1279,9 +1262,6 @@
   </si>
   <si>
     <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.system</t>
   </si>
   <si>
     <t>Observation.value[x].system</t>
@@ -1304,9 +1284,6 @@
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.code</t>
   </si>
   <si>
     <t>Observation.value[x].code</t>
@@ -1723,7 +1700,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1957,10 +1934,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2150,7 +2127,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP74"/>
+  <dimension ref="A1:AP73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2159,7 +2136,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.9453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2429,19 +2406,19 @@
         <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2452,10 +2429,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2466,7 +2443,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2475,19 +2452,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2537,13 +2514,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2572,10 +2549,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2586,7 +2563,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2595,16 +2572,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2655,19 +2632,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2690,10 +2667,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2704,7 +2681,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2716,13 +2693,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2773,13 +2750,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -2797,7 +2774,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -2808,14 +2785,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2834,16 +2811,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2881,19 +2858,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -2905,7 +2882,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -2917,7 +2894,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -2928,10 +2905,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2942,7 +2919,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -2951,19 +2928,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3013,19 +2990,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3048,10 +3025,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3062,7 +3039,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3071,19 +3048,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3133,19 +3110,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3168,10 +3145,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3182,7 +3159,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3191,19 +3168,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3253,19 +3230,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3288,10 +3265,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3311,19 +3288,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3373,7 +3350,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3385,7 +3362,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3408,10 +3385,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3431,19 +3408,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3469,13 +3446,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3493,7 +3470,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3505,7 +3482,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3528,10 +3505,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3539,10 +3516,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3551,19 +3528,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3574,7 +3551,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3589,13 +3566,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3613,7 +3590,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3625,7 +3602,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3648,10 +3625,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3668,22 +3645,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3733,19 +3710,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3768,10 +3745,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3794,16 +3771,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3829,13 +3806,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3853,19 +3830,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -3888,21 +3865,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -3914,16 +3891,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3973,19 +3950,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -3997,7 +3974,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4008,14 +3985,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4034,16 +4011,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4093,7 +4070,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4117,7 +4094,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4128,10 +4105,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4154,13 +4131,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4211,7 +4188,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4223,7 +4200,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4246,10 +4223,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4266,19 +4243,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4329,7 +4306,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4341,7 +4318,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4364,10 +4341,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4387,20 +4364,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4449,7 +4426,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4461,22 +4438,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4484,14 +4461,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4507,20 +4484,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4569,7 +4546,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4581,19 +4558,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4604,14 +4581,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4627,19 +4604,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4689,7 +4666,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4701,19 +4678,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4724,10 +4701,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4735,34 +4712,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4772,7 +4749,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4787,13 +4764,13 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4811,34 +4788,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4846,10 +4823,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4857,10 +4834,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4872,19 +4849,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4894,7 +4871,7 @@
         <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>82</v>
@@ -4909,13 +4886,13 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
@@ -4933,7 +4910,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4945,7 +4922,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -4957,10 +4934,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4968,21 +4945,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -4991,22 +4968,22 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5031,13 +5008,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5055,45 +5032,45 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5104,7 +5081,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5116,13 +5093,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5173,13 +5150,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5197,7 +5174,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5208,14 +5185,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5234,16 +5211,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5281,19 +5258,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5305,7 +5282,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5317,7 +5294,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5328,10 +5305,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5339,10 +5316,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5351,22 +5328,22 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5403,17 +5380,17 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5425,7 +5402,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5434,10 +5411,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5448,23 +5425,23 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5473,22 +5450,22 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5498,7 +5475,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5537,7 +5514,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5549,7 +5526,7 @@
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5558,10 +5535,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5572,23 +5549,23 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5597,22 +5574,22 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5622,7 +5599,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5661,7 +5638,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5673,7 +5650,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5682,10 +5659,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5696,10 +5673,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5710,7 +5687,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5719,22 +5696,22 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5783,19 +5760,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -5804,10 +5781,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5818,10 +5795,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5829,10 +5806,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5841,22 +5818,22 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5905,34 +5882,34 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5940,10 +5917,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5963,19 +5940,19 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6025,7 +6002,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6037,7 +6014,7 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6046,13 +6023,13 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6060,14 +6037,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6083,22 +6060,22 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6147,34 +6124,34 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6182,21 +6159,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6205,22 +6182,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6257,44 +6234,44 @@
         <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6302,23 +6279,23 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6327,22 +6304,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6391,34 +6368,34 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6426,10 +6403,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6449,19 +6426,19 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6511,19 +6488,19 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6532,13 +6509,13 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6546,10 +6523,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6569,20 +6546,20 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6631,7 +6608,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6643,22 +6620,22 @@
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6666,10 +6643,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6680,7 +6657,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6689,22 +6666,22 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6741,59 +6718,59 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C39" t="s" s="2">
         <v>361</v>
       </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6802,7 +6779,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6811,23 +6788,19 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>351</v>
+        <v>108</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6875,37 +6848,37 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>349</v>
+        <v>110</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>358</v>
+        <v>111</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
@@ -6913,18 +6886,18 @@
         <v>362</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6936,15 +6909,17 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6981,31 +6956,31 @@
         <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
@@ -7017,7 +6992,7 @@
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7028,21 +7003,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7051,21 +7026,23 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>113</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>114</v>
+        <v>365</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>115</v>
+        <v>366</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7080,10 +7057,10 @@
         <v>82</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="W41" t="s" s="2">
         <v>82</v>
@@ -7101,31 +7078,31 @@
         <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>120</v>
+        <v>371</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7134,10 +7111,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>110</v>
+        <v>373</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7148,10 +7125,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7162,92 +7139,92 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q42" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH42" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K42" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7256,10 +7233,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7270,10 +7247,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7284,36 +7261,34 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q43" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7333,13 +7308,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7357,19 +7332,19 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7378,10 +7353,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7392,10 +7367,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7406,7 +7381,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7415,20 +7390,20 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7477,19 +7452,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7498,10 +7473,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7512,7 +7487,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>398</v>
@@ -7526,7 +7501,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7535,10 +7510,10 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>399</v>
@@ -7546,9 +7521,11 @@
       <c r="M45" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7597,19 +7574,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7618,7 +7595,7 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>404</v>
@@ -7635,7 +7612,7 @@
         <v>405</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7646,7 +7623,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7655,22 +7632,22 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7695,13 +7672,13 @@
         <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
@@ -7719,19 +7696,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7740,10 +7717,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>395</v>
+        <v>193</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7754,14 +7731,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7780,19 +7757,19 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7817,13 +7794,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7841,56 +7818,56 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>192</v>
+        <v>423</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>82</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7902,19 +7879,19 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>241</v>
+        <v>427</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7939,13 +7916,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7963,7 +7940,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7975,25 +7952,25 @@
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
@@ -8012,7 +7989,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -8024,20 +8001,18 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>439</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -8061,13 +8036,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8091,39 +8066,39 @@
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8146,18 +8121,20 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8181,13 +8158,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8205,45 +8182,45 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8266,20 +8243,18 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>241</v>
+        <v>454</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8303,49 +8278,49 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>459</v>
@@ -8357,15 +8332,15 @@
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8388,16 +8363,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8447,45 +8422,45 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8508,18 +8483,20 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8567,45 +8544,45 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>104</v>
+        <v>477</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8616,7 +8593,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8628,20 +8605,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>480</v>
+        <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>481</v>
+        <v>108</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8689,19 +8662,19 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>479</v>
+        <v>110</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8710,10 +8683,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>486</v>
+        <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>487</v>
+        <v>111</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8724,21 +8697,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8750,15 +8723,17 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8807,19 +8782,19 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8831,7 +8806,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8842,14 +8817,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>112</v>
+        <v>483</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8862,24 +8837,26 @@
         <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>114</v>
+        <v>484</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>115</v>
+        <v>485</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8927,7 +8904,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>120</v>
+        <v>487</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8939,7 +8916,7 @@
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -8951,7 +8928,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8962,46 +8939,42 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>491</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>113</v>
+        <v>489</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9049,19 +9022,19 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9070,10 +9043,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>192</v>
+        <v>494</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9084,10 +9057,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9098,7 +9071,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9110,13 +9083,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9167,19 +9140,19 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9188,10 +9161,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9202,10 +9175,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9216,7 +9189,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9228,16 +9201,20 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>497</v>
+        <v>242</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9261,13 +9238,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9285,31 +9262,31 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>506</v>
+        <v>424</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9320,10 +9297,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9334,7 +9311,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9346,19 +9323,19 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9383,13 +9360,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9407,31 +9384,31 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="AN60" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9442,10 +9419,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9456,7 +9433,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9468,7 +9445,7 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>241</v>
+        <v>516</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>517</v>
@@ -9476,11 +9453,9 @@
       <c r="M61" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9505,13 +9480,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>522</v>
+        <v>82</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9529,31 +9504,31 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>514</v>
+        <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>432</v>
+        <v>520</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9564,10 +9539,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9578,7 +9553,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9590,18 +9565,16 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>524</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>527</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9649,19 +9622,19 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9670,10 +9643,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9684,10 +9657,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9698,7 +9671,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9707,18 +9680,20 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9767,19 +9742,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -9788,10 +9763,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9802,10 +9777,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9825,19 +9800,19 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9887,7 +9862,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9899,7 +9874,7 @@
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -9908,10 +9883,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9922,10 +9897,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9945,21 +9920,23 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
@@ -10007,7 +9984,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10019,7 +9996,7 @@
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10028,10 +10005,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10042,10 +10019,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10056,7 +10033,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10065,23 +10042,19 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>480</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>547</v>
+        <v>108</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10129,19 +10102,19 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>546</v>
+        <v>110</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10150,10 +10123,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>551</v>
+        <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>552</v>
+        <v>111</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10164,21 +10137,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10190,15 +10163,17 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10247,19 +10222,19 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10271,7 +10246,7 @@
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10282,14 +10257,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>112</v>
+        <v>483</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10302,24 +10277,26 @@
         <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>114</v>
+        <v>484</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>115</v>
+        <v>485</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10367,7 +10344,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>120</v>
+        <v>487</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10379,7 +10356,7 @@
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10391,7 +10368,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10402,45 +10379,45 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>491</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>116</v>
+        <v>551</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>494</v>
+        <v>257</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10465,13 +10442,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10489,34 +10466,34 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>82</v>
+        <v>552</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>82</v>
@@ -10524,10 +10501,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10535,10 +10512,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10547,22 +10524,22 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>241</v>
+        <v>554</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>558</v>
+        <v>353</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>256</v>
+        <v>355</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10587,13 +10564,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10611,45 +10588,45 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>261</v>
+        <v>358</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10660,7 +10637,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10669,22 +10646,22 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>562</v>
+        <v>242</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>352</v>
+        <v>560</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10709,13 +10686,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10733,56 +10710,56 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>565</v>
+        <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>357</v>
+        <v>193</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10794,19 +10771,19 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>567</v>
+        <v>416</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>568</v>
+        <v>417</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>569</v>
+        <v>418</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10831,13 +10808,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10855,49 +10832,49 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>192</v>
+        <v>423</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>82</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10916,19 +10893,19 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>424</v>
+        <v>564</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>425</v>
+        <v>565</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10953,13 +10930,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -10977,7 +10954,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10989,146 +10966,24 @@
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP74" t="s" s="2">
         <v>82</v>
       </c>
     </row>
